--- a/Python Examples/Assessment2_SimonJohnson/transactions_report.xlsx
+++ b/Python Examples/Assessment2_SimonJohnson/transactions_report.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -573,6 +573,36 @@
         <v>0.99</v>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2022-12-08 17:37:14.919646</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>369</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>6.99</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2024-01-18 12:36:01.050333</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>789</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>11.77</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
